--- a/biology/Botanique/Salix_caroliniana/Salix_caroliniana.xlsx
+++ b/biology/Botanique/Salix_caroliniana/Salix_caroliniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix caroliniana, connu sous le nom anglais Coastal plain willow, est une espèce de plantes de la famille des Salicaceae. C'est un arbuste ou un petit arbre trouvé au sud-est des États-Unis, au Mexique, dans certaines zones d'Amérique centrale et dans les Caraïbes.
 Aux États-Unis, il se rencontre au bord de l'Ohio, de la Susquehanna et de tous leurs affluents.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix caroliniana ressemble beaucoup à Salix alba. Son écorce est grisâtre, finement gercée ; son bois blanc et tendre. Son feuillage est d'un vert-clair ; ses feuilles médiocrement pétiolées, alternes, étroites, alongées, lancéolées, vertes et glabres sur leurs deux faces, finement dentées en scie, dépourvues de stipules, longues d'environ six à neuf centimètres, larges d'un centimètre et demi ou plus, acuminées ; les pétioles sont pubescents.
-Salix caroliniana fleurit au début du printemps, avant ou pendant l'émergence des feuilles.  En Floride en 1982, la floraison a eu lieu en février et mars[1].
-L'espèce a été décrite en premier par le naturaliste français André Michaux en 1803 dans Flora Boreali-Americana[2].
+Salix caroliniana fleurit au début du printemps, avant ou pendant l'émergence des feuilles.  En Floride en 1982, la floraison a eu lieu en février et mars.
+L'espèce a été décrite en premier par le naturaliste français André Michaux en 1803 dans Flora Boreali-Americana.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salix longipes Shuttlew. ex Andersson</t>
         </is>
